--- a/data/trans_orig/P19C05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>186776</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>164633</v>
+        <v>165435</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>211944</v>
+        <v>213276</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2709389678022422</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2388188011549442</v>
+        <v>0.2399815140650438</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3074478788682736</v>
+        <v>0.3093810728775336</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>283</v>
@@ -765,19 +765,19 @@
         <v>287510</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>258017</v>
+        <v>260951</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>318330</v>
+        <v>315060</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2998147830572256</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.26905910245745</v>
+        <v>0.2721185651730416</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3319533823239822</v>
+        <v>0.3285432509456497</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>477</v>
@@ -786,19 +786,19 @@
         <v>474286</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>440895</v>
+        <v>440686</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>510644</v>
+        <v>513875</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2877382825302316</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.267480670277455</v>
+        <v>0.2673541882885889</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.30979616518681</v>
+        <v>0.3117559552178696</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>502589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>477421</v>
+        <v>476089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>524732</v>
+        <v>523930</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7290610321977578</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6925521211317264</v>
+        <v>0.6906189271224666</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7611811988450559</v>
+        <v>0.7600184859349562</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>664</v>
@@ -836,19 +836,19 @@
         <v>671449</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>640629</v>
+        <v>643899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>700942</v>
+        <v>698008</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7001852169427745</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6680466176760178</v>
+        <v>0.6714567490543504</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.73094089754255</v>
+        <v>0.7278814348269583</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1166</v>
@@ -857,19 +857,19 @@
         <v>1174038</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1137680</v>
+        <v>1134449</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1207429</v>
+        <v>1207638</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7122617174697684</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6902038348131908</v>
+        <v>0.6882440447821309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7325193297225452</v>
+        <v>0.7326458117114113</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>98323</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78908</v>
+        <v>79422</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117430</v>
+        <v>120361</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07480159814626459</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06003097511352425</v>
+        <v>0.06042240878207881</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08933789469747594</v>
+        <v>0.0915676089300298</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -982,19 +982,19 @@
         <v>115750</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>96299</v>
+        <v>95724</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>137955</v>
+        <v>136931</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08429212593402569</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07012775732663198</v>
+        <v>0.06970881978558686</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1004625581877506</v>
+        <v>0.09971691985558558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>206</v>
@@ -1003,19 +1003,19 @@
         <v>214072</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>186776</v>
+        <v>186472</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243037</v>
+        <v>245035</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07965058566069959</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06949432710556046</v>
+        <v>0.06938107679239768</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09042761343007462</v>
+        <v>0.09117101682409151</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1216125</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1197018</v>
+        <v>1194087</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1235540</v>
+        <v>1235026</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9251984018537354</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9106621053025244</v>
+        <v>0.9084323910699703</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9399690248864758</v>
+        <v>0.9395775912179213</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1232</v>
@@ -1053,19 +1053,19 @@
         <v>1257445</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1235240</v>
+        <v>1236264</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1276896</v>
+        <v>1277471</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9157078740659743</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8995374418122494</v>
+        <v>0.9002830801444145</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.929872242673368</v>
+        <v>0.9302911802144131</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2419</v>
@@ -1074,19 +1074,19 @@
         <v>2473571</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2444606</v>
+        <v>2442608</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2500867</v>
+        <v>2501171</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9203494143393004</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9095723865699251</v>
+        <v>0.9088289831759085</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9305056728944394</v>
+        <v>0.9306189232076023</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>48553</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35560</v>
+        <v>36499</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63083</v>
+        <v>64368</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1076730521459515</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07885999634407133</v>
+        <v>0.08094255602232912</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1398947351810286</v>
+        <v>0.1427454031062854</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1199,19 +1199,19 @@
         <v>38961</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28033</v>
+        <v>28184</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52679</v>
+        <v>52053</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09531066954875855</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06857618522363799</v>
+        <v>0.06894619514048438</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1288678531242805</v>
+        <v>0.1273376008953267</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -1220,19 +1220,19 @@
         <v>87514</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69888</v>
+        <v>70819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107537</v>
+        <v>107281</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1017948797460832</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08129215543772007</v>
+        <v>0.08237517554111932</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.125084481771417</v>
+        <v>0.1247866975305275</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>402376</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>387846</v>
+        <v>386561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>415369</v>
+        <v>414430</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8923269478540484</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8601052648189715</v>
+        <v>0.8572545968937149</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9211400036559286</v>
+        <v>0.919057443977671</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>350</v>
@@ -1270,19 +1270,19 @@
         <v>369822</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>356104</v>
+        <v>356730</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>380750</v>
+        <v>380599</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9046893304512414</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8711321468757194</v>
+        <v>0.8726623991046734</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9314238147763619</v>
+        <v>0.9310538048595156</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>733</v>
@@ -1291,19 +1291,19 @@
         <v>772198</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>752175</v>
+        <v>752431</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>789824</v>
+        <v>788893</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8982051202539169</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8749155182285832</v>
+        <v>0.8752133024694726</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9187078445622801</v>
+        <v>0.9176248244588807</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>333652</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>300049</v>
+        <v>302716</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>369735</v>
+        <v>374427</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1359212612573793</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1222325170665539</v>
+        <v>0.1233189624332062</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1506208364361623</v>
+        <v>0.1525321313652471</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>433</v>
@@ -1416,19 +1416,19 @@
         <v>442221</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>406194</v>
+        <v>403723</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>482841</v>
+        <v>478595</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1613393267078163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1481952969562092</v>
+        <v>0.1472937971892109</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1761592366774703</v>
+        <v>0.1746100608037576</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>768</v>
@@ -1437,19 +1437,19 @@
         <v>775873</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>723385</v>
+        <v>721732</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>829081</v>
+        <v>826653</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1493303500795586</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1392282296822801</v>
+        <v>0.1389100731941768</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1595712881084231</v>
+        <v>0.1591039172566758</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2121090</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2085007</v>
+        <v>2080315</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2154693</v>
+        <v>2152026</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8640787387426208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8493791635638377</v>
+        <v>0.8474678686347529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.877767482933446</v>
+        <v>0.8766810375667938</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2246</v>
@@ -1487,19 +1487,19 @@
         <v>2298716</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2258096</v>
+        <v>2262342</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2334743</v>
+        <v>2337214</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8386606732921836</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8238407633225295</v>
+        <v>0.8253899391962424</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8518047030437905</v>
+        <v>0.852706202810789</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4318</v>
@@ -1508,19 +1508,19 @@
         <v>4419806</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4366598</v>
+        <v>4369026</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4472294</v>
+        <v>4473947</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8506696499204414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.840428711891577</v>
+        <v>0.8408960827433242</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8607717703177199</v>
+        <v>0.8610899268058231</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>217175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>190168</v>
+        <v>190321</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>242161</v>
+        <v>243383</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2787244472333426</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2440641310347378</v>
+        <v>0.2442595906749608</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3107925184910268</v>
+        <v>0.3123602713074536</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>346</v>
@@ -1872,19 +1872,19 @@
         <v>375515</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>345009</v>
+        <v>343225</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>411790</v>
+        <v>404326</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3328324031912923</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3057936611186302</v>
+        <v>0.3042120156551791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3649836706119096</v>
+        <v>0.3583677117271184</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>545</v>
@@ -1893,19 +1893,19 @@
         <v>592690</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>553074</v>
+        <v>552383</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>633757</v>
+        <v>637120</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3107294599832746</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2899597626520717</v>
+        <v>0.2895974740011923</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3322593745507274</v>
+        <v>0.3340228873114452</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>561999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>537013</v>
+        <v>535791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>589006</v>
+        <v>588853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7212755527666574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6892074815089732</v>
+        <v>0.6876397286925463</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7559358689652621</v>
+        <v>0.7557404093250392</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>706</v>
@@ -1943,19 +1943,19 @@
         <v>752727</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>716452</v>
+        <v>723916</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>783233</v>
+        <v>785017</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6671675968087077</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6350163293880904</v>
+        <v>0.641632288272882</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6942063388813697</v>
+        <v>0.6957879843448213</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1240</v>
@@ -1964,19 +1964,19 @@
         <v>1314725</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1273658</v>
+        <v>1270295</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1354341</v>
+        <v>1355032</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6892705400167254</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6677406254492728</v>
+        <v>0.6659771126885549</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7100402373479288</v>
+        <v>0.7104025259988079</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>178395</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>152454</v>
+        <v>152449</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>206412</v>
+        <v>208494</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1056668685138838</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09030168863975012</v>
+        <v>0.09029876587997554</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1222618880306935</v>
+        <v>0.1234948952593581</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>151</v>
@@ -2089,19 +2089,19 @@
         <v>164657</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>142029</v>
+        <v>140511</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192850</v>
+        <v>191892</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1035395568421703</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08931060218968673</v>
+        <v>0.08835618974531892</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1212680454947777</v>
+        <v>0.1206657589743336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>311</v>
@@ -2110,19 +2110,19 @@
         <v>343052</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>307673</v>
+        <v>306063</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>380809</v>
+        <v>381904</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1046350066867617</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09384409219324245</v>
+        <v>0.09335308556695479</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1161515042482308</v>
+        <v>0.1164855960573909</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1509883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1481866</v>
+        <v>1479784</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1535824</v>
+        <v>1535829</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8943331314861162</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8777381119693056</v>
+        <v>0.876505104740642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9096983113602497</v>
+        <v>0.9097012341200246</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1326</v>
@@ -2160,19 +2160,19 @@
         <v>1425621</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1397428</v>
+        <v>1398386</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1448249</v>
+        <v>1449767</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8964604431578297</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8787319545052225</v>
+        <v>0.8793342410256664</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9106893978103141</v>
+        <v>0.911643810254681</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2763</v>
@@ -2181,19 +2181,19 @@
         <v>2935503</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2897746</v>
+        <v>2896651</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2970882</v>
+        <v>2972492</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8953649933132383</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8838484957517693</v>
+        <v>0.8835144039426093</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9061559078067576</v>
+        <v>0.9066469144330452</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>39211</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26965</v>
+        <v>28033</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53559</v>
+        <v>55337</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08868669480757307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0609892871326214</v>
+        <v>0.06340444388707654</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.121137202057396</v>
+        <v>0.1251594515079861</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -2306,19 +2306,19 @@
         <v>32417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21904</v>
+        <v>22065</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44194</v>
+        <v>46351</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07650551210069247</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05169425526678595</v>
+        <v>0.05207351714926677</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1043000266900648</v>
+        <v>0.1093899799366046</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -2327,19 +2327,19 @@
         <v>71629</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54848</v>
+        <v>55301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89652</v>
+        <v>92660</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08272560955501851</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06334516185940003</v>
+        <v>0.06386872081280741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1035413866940929</v>
+        <v>0.1070150142574726</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>402923</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>388575</v>
+        <v>386797</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>415169</v>
+        <v>414101</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9113133051924269</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.878862797942604</v>
+        <v>0.8748405484920139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9390107128673786</v>
+        <v>0.9365955561129233</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>353</v>
@@ -2377,19 +2377,19 @@
         <v>391306</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>379529</v>
+        <v>377372</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>401819</v>
+        <v>401658</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9234944878993075</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8956999733099352</v>
+        <v>0.8906100200633955</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9483057447332141</v>
+        <v>0.9479264828507332</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>721</v>
@@ -2398,19 +2398,19 @@
         <v>794228</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>776205</v>
+        <v>773197</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>811009</v>
+        <v>810556</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9172743904449815</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8964586133059067</v>
+        <v>0.8929849857425276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9366548381405996</v>
+        <v>0.9361312791871926</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>434781</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>394018</v>
+        <v>397049</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>478110</v>
+        <v>480169</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1494306255590988</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1354207978000492</v>
+        <v>0.1364625051976698</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1643222786001584</v>
+        <v>0.1650300106656274</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>526</v>
@@ -2523,19 +2523,19 @@
         <v>572589</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>527579</v>
+        <v>526193</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>619557</v>
+        <v>610729</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.182223112301559</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1678989323864009</v>
+        <v>0.1674579212532025</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1971703636393931</v>
+        <v>0.1943609195406463</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>918</v>
@@ -2544,19 +2544,19 @@
         <v>1007370</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>948224</v>
+        <v>948777</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1069169</v>
+        <v>1073014</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1664572074003502</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1566839655771498</v>
+        <v>0.1567751938502345</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.176668736082862</v>
+        <v>0.1773040648063875</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2474805</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2431476</v>
+        <v>2429417</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2515568</v>
+        <v>2512537</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8505693744409012</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8356777213998416</v>
+        <v>0.8349699893343725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8645792021999509</v>
+        <v>0.8635374948023298</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2385</v>
@@ -2594,19 +2594,19 @@
         <v>2569654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2522686</v>
+        <v>2531514</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2614664</v>
+        <v>2616050</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.817776887698441</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8028296363606069</v>
+        <v>0.8056390804593538</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8321010676135994</v>
+        <v>0.832542078746798</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4724</v>
@@ -2615,19 +2615,19 @@
         <v>5044458</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4982659</v>
+        <v>4978814</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5103604</v>
+        <v>5103051</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8335427925996498</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.823331263917138</v>
+        <v>0.8226959351936125</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8433160344228502</v>
+        <v>0.8432248061497655</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>96261</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80422</v>
+        <v>81068</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112800</v>
+        <v>114120</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2104441481832071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1758169530032681</v>
+        <v>0.1772281280405884</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2466012562508866</v>
+        <v>0.2494872875249162</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>122</v>
@@ -2979,19 +2979,19 @@
         <v>136491</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>114901</v>
+        <v>115571</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>158797</v>
+        <v>158935</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2136432855286231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1798498263622713</v>
+        <v>0.1808974766215715</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2485583546746791</v>
+        <v>0.2487730951352864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>221</v>
@@ -3000,19 +3000,19 @@
         <v>232752</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>203900</v>
+        <v>204563</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>258969</v>
+        <v>259091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2123084723724882</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1859905350200562</v>
+        <v>0.1865947574380038</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2362221106523172</v>
+        <v>0.2363336705638689</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>361158</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>344619</v>
+        <v>343299</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>376997</v>
+        <v>376351</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7895558518167929</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7533987437491125</v>
+        <v>0.7505127124750839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8241830469967315</v>
+        <v>0.8227718719594117</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>460</v>
@@ -3050,19 +3050,19 @@
         <v>502383</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>480077</v>
+        <v>479939</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>523973</v>
+        <v>523303</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.786356714471377</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.751441645325321</v>
+        <v>0.7512269048647137</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8201501736377287</v>
+        <v>0.8191025233784285</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>822</v>
@@ -3071,19 +3071,19 @@
         <v>863541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>837324</v>
+        <v>837202</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>892393</v>
+        <v>891730</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7876915276275118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7637778893476828</v>
+        <v>0.7636663294361313</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8140094649799441</v>
+        <v>0.8134052425619962</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>148205</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>123685</v>
+        <v>125550</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>175059</v>
+        <v>171892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08735373933735945</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07290150647347315</v>
+        <v>0.07400080463647797</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1031820777877799</v>
+        <v>0.1013150968290101</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -3196,19 +3196,19 @@
         <v>159645</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137321</v>
+        <v>135028</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>186338</v>
+        <v>185754</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09342955460800012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08036468776093965</v>
+        <v>0.07902288669866116</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1090513856806733</v>
+        <v>0.1087092176550034</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>281</v>
@@ -3217,19 +3217,19 @@
         <v>307850</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>273833</v>
+        <v>275940</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>341515</v>
+        <v>342184</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09040245352565775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08041324449344178</v>
+        <v>0.08103179444743691</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1002886364628692</v>
+        <v>0.1004849804459081</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1548400</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1521546</v>
+        <v>1524713</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1572920</v>
+        <v>1571055</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9126462606626405</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.89681792221222</v>
+        <v>0.8986849031709897</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9270984935265267</v>
+        <v>0.9259991953635219</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1503</v>
@@ -3267,19 +3267,19 @@
         <v>1549074</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1522381</v>
+        <v>1522965</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1571398</v>
+        <v>1573691</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9065704453919998</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8909486143193268</v>
+        <v>0.8912907823449967</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9196353122390604</v>
+        <v>0.9209771133013389</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2964</v>
@@ -3288,19 +3288,19 @@
         <v>3097474</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3063809</v>
+        <v>3063140</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3131491</v>
+        <v>3129384</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9095975464743422</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8997113635371308</v>
+        <v>0.8995150195540921</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9195867555065581</v>
+        <v>0.9189682055525631</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>38392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27155</v>
+        <v>26728</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52517</v>
+        <v>53079</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07690072888595904</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05439266326078837</v>
+        <v>0.05353706181281425</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1051925869462668</v>
+        <v>0.1063177781794123</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -3413,19 +3413,19 @@
         <v>36500</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25987</v>
+        <v>25280</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50016</v>
+        <v>50514</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07180564504990143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05112373456557692</v>
+        <v>0.04973213786000708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09839517130067892</v>
+        <v>0.09937538973567837</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -3434,19 +3434,19 @@
         <v>74892</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58727</v>
+        <v>58940</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93100</v>
+        <v>94359</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07433024059809967</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0582858949124493</v>
+        <v>0.05849755814640858</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0924011061630132</v>
+        <v>0.09365104805031434</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>460852</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>446727</v>
+        <v>446165</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>472089</v>
+        <v>472516</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.923099271114041</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8948074130537332</v>
+        <v>0.8936822218205878</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9456073367392117</v>
+        <v>0.9464629381871861</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>456</v>
@@ -3484,19 +3484,19 @@
         <v>471820</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>458304</v>
+        <v>457806</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>482333</v>
+        <v>483040</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9281943549500986</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9016048286993211</v>
+        <v>0.9006246102643221</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.948876265434423</v>
+        <v>0.9502678621399929</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>880</v>
@@ -3505,19 +3505,19 @@
         <v>932672</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>914464</v>
+        <v>913205</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>948837</v>
+        <v>948624</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9256697594019003</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9075988938369868</v>
+        <v>0.9063489519496858</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9417141050875507</v>
+        <v>0.9415024418535913</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>282858</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>247930</v>
+        <v>252929</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>313186</v>
+        <v>315613</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1066074659858131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09344303218677434</v>
+        <v>0.0953274731842139</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1180376553484692</v>
+        <v>0.1189525962377321</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>297</v>
@@ -3630,19 +3630,19 @@
         <v>332636</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>295628</v>
+        <v>298637</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>367468</v>
+        <v>369184</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1164728333288798</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1035144629794348</v>
+        <v>0.1045679575726025</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1286693395931613</v>
+        <v>0.1292701949173564</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>569</v>
@@ -3651,19 +3651,19 @@
         <v>615495</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>566033</v>
+        <v>564316</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>660920</v>
+        <v>667305</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.111721588300266</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1027435474288368</v>
+        <v>0.1024318521946713</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1199669751844338</v>
+        <v>0.1211259456319024</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2370411</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2340083</v>
+        <v>2337656</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2405339</v>
+        <v>2400340</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8933925340141869</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.881962344651531</v>
+        <v>0.881047403762268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9065569678132257</v>
+        <v>0.9046725268157861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2419</v>
@@ -3701,19 +3701,19 @@
         <v>2523277</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2488445</v>
+        <v>2486729</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2560285</v>
+        <v>2557276</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8835271666711202</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8713306604068386</v>
+        <v>0.8707298050826436</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8964855370205652</v>
+        <v>0.8954320424273974</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4666</v>
@@ -3722,19 +3722,19 @@
         <v>4893687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4848262</v>
+        <v>4841877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4943149</v>
+        <v>4944866</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.888278411699734</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8800330248155657</v>
+        <v>0.8788740543680977</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8972564525711629</v>
+        <v>0.8975681478053287</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>94715</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80178</v>
+        <v>79079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>110459</v>
+        <v>110571</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1762859669483234</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1492294495728056</v>
+        <v>0.1471842114223336</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2055890649646901</v>
+        <v>0.2057988443337122</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>384</v>
@@ -4086,19 +4086,19 @@
         <v>207437</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189876</v>
+        <v>188068</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>226881</v>
+        <v>226537</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2643878524741101</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2420065068062218</v>
+        <v>0.2397019195861828</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.289170929059611</v>
+        <v>0.2887323166966004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>519</v>
@@ -4107,19 +4107,19 @@
         <v>302151</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>279186</v>
+        <v>279364</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>328558</v>
+        <v>327562</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2285785486514535</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2112053331304552</v>
+        <v>0.2113397888969733</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.248555034464476</v>
+        <v>0.2478020189143967</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>442564</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>426820</v>
+        <v>426708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>457101</v>
+        <v>458200</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8237140330516766</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7944109350353097</v>
+        <v>0.7942011556662878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8507705504271939</v>
+        <v>0.8528157885776665</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>986</v>
@@ -4157,19 +4157,19 @@
         <v>577155</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>557711</v>
+        <v>558055</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>594716</v>
+        <v>596524</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.73561214752589</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7108290709403891</v>
+        <v>0.7112676833033996</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7579934931937781</v>
+        <v>0.7602980804138171</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1499</v>
@@ -4178,19 +4178,19 @@
         <v>1019720</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>993313</v>
+        <v>994309</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1042685</v>
+        <v>1042507</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7714214513485467</v>
+        <v>0.7714214513485464</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.751444965535523</v>
+        <v>0.7521979810856028</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7887946668695439</v>
+        <v>0.7886602111030265</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>198635</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>173769</v>
+        <v>172777</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>228146</v>
+        <v>229861</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09254001923584999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08095563503293658</v>
+        <v>0.08049302304891096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1062886324879767</v>
+        <v>0.1070876153061884</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>310</v>
@@ -4303,19 +4303,19 @@
         <v>177991</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>157481</v>
+        <v>157880</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>199496</v>
+        <v>199253</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08433204758700898</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07461477580660776</v>
+        <v>0.07480383212274513</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09452129988675673</v>
+        <v>0.09440642526209049</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>536</v>
@@ -4324,19 +4324,19 @@
         <v>376626</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>345480</v>
+        <v>346504</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>420952</v>
+        <v>417501</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08847062976948587</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08115430007526277</v>
+        <v>0.08139506147142851</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09888294264589449</v>
+        <v>0.09807243765204851</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1947843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1918332</v>
+        <v>1916617</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1972709</v>
+        <v>1973701</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.90745998076415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8937113675120233</v>
+        <v>0.8929123846938118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9190443649670632</v>
+        <v>0.9195069769510887</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2539</v>
@@ -4374,19 +4374,19 @@
         <v>1932601</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1911096</v>
+        <v>1911339</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1953111</v>
+        <v>1952712</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9156679524129909</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9054787001132435</v>
+        <v>0.9055935747379094</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9253852241933928</v>
+        <v>0.9251961678772549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4236</v>
@@ -4395,19 +4395,19 @@
         <v>3880444</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3836118</v>
+        <v>3839569</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3911590</v>
+        <v>3910566</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9115293702305141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9011170573541069</v>
+        <v>0.9019275623479517</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9188456999247373</v>
+        <v>0.9186049385285722</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>58322</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46013</v>
+        <v>45747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73865</v>
+        <v>73558</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08309809394886819</v>
+        <v>0.08309809394886822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06556086179398493</v>
+        <v>0.06518185550094265</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1052440206331242</v>
+        <v>0.104807360099557</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -4520,19 +4520,19 @@
         <v>50052</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39032</v>
+        <v>39064</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63461</v>
+        <v>62873</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06909249820983049</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05388136281439795</v>
+        <v>0.05392548817918678</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08760309884353906</v>
+        <v>0.08679164087208271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -4541,19 +4541,19 @@
         <v>108373</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90935</v>
+        <v>91447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>128450</v>
+        <v>128564</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07598446913409444</v>
+        <v>0.07598446913409443</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06375786523570635</v>
+        <v>0.06411663922006247</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09006140017848539</v>
+        <v>0.09014102011763656</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>643519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>627976</v>
+        <v>628283</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>655828</v>
+        <v>656094</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9169019060511318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8947559793668757</v>
+        <v>0.8951926399004431</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9344391382060147</v>
+        <v>0.9348181444990573</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>913</v>
@@ -4591,19 +4591,19 @@
         <v>674361</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>660952</v>
+        <v>661540</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>685381</v>
+        <v>685349</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9309075017901696</v>
+        <v>0.9309075017901695</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9123969011564613</v>
+        <v>0.9132083591279174</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9461186371856022</v>
+        <v>0.9460745118208131</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1511</v>
@@ -4612,19 +4612,19 @@
         <v>1317881</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1297804</v>
+        <v>1297690</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1335319</v>
+        <v>1334807</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9240155308659056</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9099385998215147</v>
+        <v>0.9098589798823634</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9362421347642936</v>
+        <v>0.9358833607799374</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>351671</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>319408</v>
+        <v>319255</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>384931</v>
+        <v>386778</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1038727849043141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0943432951524919</v>
+        <v>0.09429783966320146</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1136965678475375</v>
+        <v>0.1142422505703667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>769</v>
@@ -4737,19 +4737,19 @@
         <v>435479</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>405512</v>
+        <v>405507</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>466456</v>
+        <v>464958</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1203113672920602</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1120323992155145</v>
+        <v>0.112030902914161</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1288696674402773</v>
+        <v>0.1284556873871146</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1202</v>
@@ -4758,19 +4758,19 @@
         <v>787150</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>741454</v>
+        <v>740251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>834422</v>
+        <v>835100</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1123666296852584</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1058433998066229</v>
+        <v>0.1056716531325995</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1191146850555257</v>
+        <v>0.1192114766599059</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3033927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3000667</v>
+        <v>2998820</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3066190</v>
+        <v>3066343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.896127215095686</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8863034321524623</v>
+        <v>0.8857577494296336</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.905656704847508</v>
+        <v>0.9057021603367986</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4438</v>
@@ -4808,19 +4808,19 @@
         <v>3184118</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3153141</v>
+        <v>3154639</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3214085</v>
+        <v>3214090</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.87968863270794</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8711303325597228</v>
+        <v>0.8715443126128855</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8879676007844857</v>
+        <v>0.8879690970858397</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7246</v>
@@ -4829,19 +4829,19 @@
         <v>6218045</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6170773</v>
+        <v>6170095</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6263741</v>
+        <v>6264944</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8876333703147417</v>
+        <v>0.8876333703147414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.880885314944474</v>
+        <v>0.8807885233400942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8941566001933769</v>
+        <v>0.8943283468674005</v>
       </c>
     </row>
     <row r="15">
